--- a/biology/Botanique/Ophrys_brun/Ophrys_brun.xlsx
+++ b/biology/Botanique/Ophrys_brun/Ophrys_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys fusca
 L'Ophrys brun (Ophrys fusca) est une espèce d'orchidée terrestre européenne.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace (30cm au plus) à tubercules globuleux ou ovoïdes entiers, à tige dressée munie de feuilles ovales ou oblongues à épi assez lâche. Les divisions extérieures du périanthe sont vert clair, la supérieure arquée en voûte sur le gynostème, les 2 autres étalées, labelle élargi vers l'extrémité, brun avec 4 lobes arrondis plus foncés à l'extrémité; gynostème obtus sans bec.
 </t>
@@ -543,7 +557,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avril à Mai
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies, pelouses relativement sèches et chaudes, à sol calcaire, garrigues, bois clairs bien exposés sur les coteaux calcaires.
 </t>
@@ -605,7 +623,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce méditerranéenne: du Portugal à la Crète.
 </t>
@@ -636,7 +656,9 @@
           <t>Autres espèces du groupe fusca-lutea</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>sous-groupe d'Ophrys iricolor
 sous-groupe d'Ophrys fusca
